--- a/tests/fixtures/orderforms/1541.6.external.xlsx
+++ b/tests/fixtures/orderforms/1541.6.external.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10910"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/patrikgrenfeldt/Documents/src/cg/tests/fixtures/orderforms/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6071D115-3193-4C46-A665-6E3B5B8C9DAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="0" windowWidth="25600" windowHeight="28260" tabRatio="211"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="25600" windowHeight="21140" tabRatio="211" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="order form" sheetId="1" r:id="rId1"/>
     <sheet name="Genlista" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4776" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4827" uniqueCount="209">
   <si>
     <t>&lt;TABLE HEADER&gt;</t>
   </si>
@@ -617,17 +623,47 @@
     <t>fam2</t>
   </si>
   <si>
-    <t>sample2</t>
+    <t>Tumor</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>extraction method</t>
+  </si>
+  <si>
+    <t>sample comment</t>
+  </si>
+  <si>
+    <t>fam3</t>
+  </si>
+  <si>
+    <t>fam4</t>
+  </si>
+  <si>
+    <t>fam5</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="38">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -651,10 +687,12 @@
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -670,19 +708,23 @@
     <font>
       <sz val="9"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0" tint="-0.499984740745262"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -695,51 +737,60 @@
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FFC83264"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -747,36 +798,42 @@
       <sz val="12"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF606060"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF5DABED"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -784,6 +841,7 @@
       <sz val="15"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,11 +849,13 @@
       <u/>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -803,45 +863,53 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFC83264"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1573,216 +1641,216 @@
     </xf>
   </cellXfs>
   <cellStyles count="211">
-    <cellStyle name="Excel Built-in Normal" xfId="45"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8"/>
+    <cellStyle name="Excel Built-in Normal" xfId="45" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Följd hyperlänk" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="134" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1855,6 +1923,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1875,7 +1951,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2207,7 +2289,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2251,7 +2333,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -2272,17 +2354,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AH401"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.6640625" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.83203125" style="2" customWidth="1"/>
@@ -2350,7 +2432,7 @@
       <c r="AG1" s="56"/>
       <c r="AH1" s="56"/>
     </row>
-    <row r="2" spans="1:34" ht="16">
+    <row r="2" spans="1:34" ht="17">
       <c r="A2" s="55"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
@@ -2386,7 +2468,7 @@
       <c r="AG2" s="57"/>
       <c r="AH2" s="57"/>
     </row>
-    <row r="3" spans="1:34" ht="16">
+    <row r="3" spans="1:34" ht="17">
       <c r="A3" s="97" t="s">
         <v>39</v>
       </c>
@@ -2474,7 +2556,7 @@
       <c r="AG4" s="57"/>
       <c r="AH4" s="57"/>
     </row>
-    <row r="5" spans="1:34" ht="16">
+    <row r="5" spans="1:34" ht="17">
       <c r="A5" s="59"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
@@ -2510,7 +2592,7 @@
       <c r="AG5" s="57"/>
       <c r="AH5" s="57"/>
     </row>
-    <row r="6" spans="1:34" ht="16">
+    <row r="6" spans="1:34" ht="17">
       <c r="A6" s="60"/>
       <c r="B6" s="60"/>
       <c r="C6" s="60"/>
@@ -2890,7 +2972,7 @@
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
     </row>
-    <row r="16" spans="1:34" s="7" customFormat="1" ht="13" hidden="1" customHeight="1">
+    <row r="16" spans="1:34" s="7" customFormat="1" ht="13" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>0</v>
       </c>
@@ -2928,7 +3010,7 @@
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
     </row>
-    <row r="17" spans="1:34" s="8" customFormat="1" ht="41" hidden="1" customHeight="1">
+    <row r="17" spans="1:34" s="8" customFormat="1" ht="41" customHeight="1">
       <c r="A17" s="22" t="s">
         <v>1</v>
       </c>
@@ -3022,7 +3104,7 @@
       </c>
       <c r="AH17" s="27"/>
     </row>
-    <row r="18" spans="1:34" s="9" customFormat="1" ht="19" hidden="1" customHeight="1">
+    <row r="18" spans="1:34" s="9" customFormat="1" ht="19" customHeight="1">
       <c r="A18" s="20" t="s">
         <v>2</v>
       </c>
@@ -3214,24 +3296,42 @@
       <c r="G21" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="40"/>
+      <c r="H21" s="40" t="s">
+        <v>119</v>
+      </c>
       <c r="I21" s="38"/>
       <c r="J21" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="K21" s="41"/>
+      <c r="K21" s="41" t="s">
+        <v>155</v>
+      </c>
       <c r="L21" s="100" t="s">
         <v>88</v>
       </c>
       <c r="M21" s="103"/>
-      <c r="N21" s="101"/>
-      <c r="O21" s="101"/>
-      <c r="P21" s="101"/>
+      <c r="N21" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="O21" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="101" t="s">
+        <v>125</v>
+      </c>
       <c r="Q21" s="104"/>
-      <c r="R21" s="100"/>
-      <c r="S21" s="100"/>
-      <c r="T21" s="100"/>
-      <c r="U21" s="100"/>
+      <c r="R21" s="100" t="s">
+        <v>198</v>
+      </c>
+      <c r="S21" s="100" t="s">
+        <v>199</v>
+      </c>
+      <c r="T21" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="U21" s="100" t="s">
+        <v>201</v>
+      </c>
       <c r="V21" s="105"/>
       <c r="W21" s="102" t="s">
         <v>91</v>
@@ -3269,10 +3369,12 @@
       <c r="AH21" s="105"/>
     </row>
     <row r="22" spans="1:34" s="106" customFormat="1" ht="13" customHeight="1">
-      <c r="A22" s="99" t="s">
-        <v>198</v>
-      </c>
-      <c r="B22" s="100"/>
+      <c r="A22" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="100" t="s">
+        <v>130</v>
+      </c>
       <c r="C22" s="101" t="s">
         <v>152</v>
       </c>
@@ -3288,7 +3390,9 @@
       <c r="G22" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="40"/>
+      <c r="H22" s="40" t="s">
+        <v>120</v>
+      </c>
       <c r="I22" s="38"/>
       <c r="J22" s="41" t="s">
         <v>162</v>
@@ -3302,7 +3406,9 @@
       <c r="O22" s="101"/>
       <c r="P22" s="101"/>
       <c r="Q22" s="104"/>
-      <c r="R22" s="100"/>
+      <c r="R22" s="100" t="s">
+        <v>208</v>
+      </c>
       <c r="S22" s="100"/>
       <c r="T22" s="100"/>
       <c r="U22" s="100"/>
@@ -3343,20 +3449,38 @@
       <c r="AH22" s="105"/>
     </row>
     <row r="23" spans="1:34" s="106" customFormat="1" ht="13" customHeight="1">
-      <c r="A23" s="99"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="39"/>
+      <c r="A23" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="B23" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D23" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>197</v>
+      </c>
       <c r="F23" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
+      <c r="G23" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="40" t="s">
+        <v>121</v>
+      </c>
       <c r="I23" s="38"/>
-      <c r="J23" s="41"/>
+      <c r="J23" s="41" t="s">
+        <v>162</v>
+      </c>
       <c r="K23" s="41"/>
-      <c r="L23" s="100"/>
+      <c r="L23" s="100" t="s">
+        <v>89</v>
+      </c>
       <c r="M23" s="103"/>
       <c r="N23" s="101"/>
       <c r="O23" s="101"/>
@@ -3403,20 +3527,38 @@
       <c r="AH23" s="105"/>
     </row>
     <row r="24" spans="1:34" s="106" customFormat="1" ht="13" customHeight="1">
-      <c r="A24" s="99"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="101" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>197</v>
+      </c>
       <c r="F24" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
+      <c r="G24" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>122</v>
+      </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="41"/>
+      <c r="J24" s="41" t="s">
+        <v>159</v>
+      </c>
       <c r="K24" s="41"/>
-      <c r="L24" s="100"/>
+      <c r="L24" s="100" t="s">
+        <v>89</v>
+      </c>
       <c r="M24" s="103"/>
       <c r="N24" s="101"/>
       <c r="O24" s="101"/>
@@ -3463,16 +3605,30 @@
       <c r="AH24" s="105"/>
     </row>
     <row r="25" spans="1:34" s="106" customFormat="1" ht="13" customHeight="1">
-      <c r="A25" s="99"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="99" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D25" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>202</v>
+      </c>
       <c r="F25" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
+      <c r="G25" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>123</v>
+      </c>
       <c r="I25" s="38"/>
       <c r="J25" s="41"/>
       <c r="K25" s="41"/>
@@ -3523,16 +3679,30 @@
       <c r="AH25" s="105"/>
     </row>
     <row r="26" spans="1:34" s="106" customFormat="1" ht="13" customHeight="1">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="99" t="s">
+        <v>206</v>
+      </c>
+      <c r="B26" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C26" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>203</v>
+      </c>
       <c r="F26" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+      <c r="G26" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>124</v>
+      </c>
       <c r="I26" s="38"/>
       <c r="J26" s="41"/>
       <c r="K26" s="41"/>
@@ -3583,16 +3753,30 @@
       <c r="AH26" s="105"/>
     </row>
     <row r="27" spans="1:34" s="106" customFormat="1" ht="13" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="39" t="s">
+        <v>207</v>
+      </c>
+      <c r="B27" s="100" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" s="107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>204</v>
+      </c>
       <c r="F27" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
+      <c r="G27" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="40" t="s">
+        <v>125</v>
+      </c>
       <c r="I27" s="38"/>
       <c r="J27" s="41"/>
       <c r="K27" s="41"/>
@@ -25664,7 +25848,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="83BD" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="4">
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="J15:L15"/>
@@ -25673,7 +25857,7 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.79000000000000015" right="0.79000000000000015" top="1.05" bottom="1.05" header="0.79000000000000015" footer="0.79000000000000015"/>
   <pageSetup paperSize="9" scale="56" orientation="landscape" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -25684,55 +25868,55 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="1056" yWindow="702" count="9">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Genlista!$A$2:$A$35</xm:f>
           </x14:formula1>
           <xm:sqref>J21:K400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify in the comments collumn if DSD sample!">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify in the comments collumn if DSD sample!" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Sheet3!$G$1:$G$3</xm:f>
           </x14:formula1>
           <xm:sqref>Q21:Q400 L21:L400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Sheet3!$K$1:$K$4</xm:f>
           </x14:formula1>
           <xm:sqref>M21:M400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Sheet3!$L$1:$L$7</xm:f>
           </x14:formula1>
           <xm:sqref>H21:H400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Sheet3!$N$1:$N$41</xm:f>
           </x14:formula1>
           <xm:sqref>G21:G400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000005000000}">
           <x14:formula1>
             <xm:f>Sheet3!$E$1:$E$3</xm:f>
           </x14:formula1>
           <xm:sqref>D21:D400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000006000000}">
           <x14:formula1>
             <xm:f>Sheet3!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>C21:C400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>Sheet3!$O$1:$O$4</xm:f>
           </x14:formula1>
           <xm:sqref>B21:B400</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000008000000}">
           <x14:formula1>
             <xm:f>Sheet3!$K$1:$K$2</xm:f>
           </x14:formula1>
@@ -25748,14 +25932,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="B1" t="s">
@@ -25950,14 +26134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="3" width="12.1640625" customWidth="1"/>
   </cols>
